--- a/Stundenaufstellung KW 35-38.xlsx
+++ b/Stundenaufstellung KW 35-38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_TG-C23\02_Python\AutoStundenBerechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054894C8-3FD3-480C-882F-7A0E99106338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70217D38-B736-49B2-A232-C10AAD19ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="29">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I12" s="30" t="s">
         <v>6</v>
@@ -1583,8 +1583,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="32">
-        <f>SUM(I6:I10)</f>
-        <v>26.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1754,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="29">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>6</v>
@@ -1949,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="H32" s="29">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I32" s="30" t="s">
         <v>6</v>
@@ -2140,7 +2139,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="29">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="I42" s="30" t="s">
         <v>6</v>

--- a/Stundenaufstellung KW 35-38.xlsx
+++ b/Stundenaufstellung KW 35-38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_TG-C23\02_Python\AutoStundenBerechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70217D38-B736-49B2-A232-C10AAD19ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BE5DE-034E-44DB-97FB-D0BA4AFBAB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1366,7 +1366,7 @@
   <dimension ref="A2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1583,7 +1583,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="32">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -3015,9 +3015,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3232,19 +3235,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0924FF8C-68C1-4DAE-BE3A-1058C652270E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{457CA776-6502-4BEA-ACF6-494FD9BAFCD9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3269,9 +3268,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{457CA776-6502-4BEA-ACF6-494FD9BAFCD9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0924FF8C-68C1-4DAE-BE3A-1058C652270E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>